--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B62D984-6B4A-4FE1-A1F5-9E88D21B3F82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C1041-844A-4003-BECE-215A7DDD9D43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId2"/>
-    <sheet name="help" sheetId="4" r:id="rId3"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId4"/>
-    <sheet name="template-source" sheetId="2" r:id="rId5"/>
+    <sheet name="config" sheetId="6" r:id="rId2"/>
+    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
+    <sheet name="help" sheetId="4" r:id="rId4"/>
+    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
+    <sheet name="template-source" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,96 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>state-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>nextstate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>thumbnail</t>
   </si>
   <si>
-    <t>S_START</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S_END</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>nowait</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>post_wait</t>
-  </si>
-  <si>
-    <t>post_wait-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>init-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>wait-cmt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>!dir</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>!uuid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>state-ref</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>init-ref</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Write name of state</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Write comment of state</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Write refference</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">:output=FunctionControl_created.cs_x000D_
@@ -395,6 +312,260 @@
 Wrote 2018.7.7_x000D_
 @@@_x000D_
 _x000D_
+</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Write name of state</t>
+  </si>
+  <si>
+    <t>S_START</t>
+  </si>
+  <si>
+    <t>S_END</t>
+  </si>
+  <si>
+    <t>state-cmt</t>
+  </si>
+  <si>
+    <t>Write comment of state</t>
+  </si>
+  <si>
+    <t>state-ref</t>
+  </si>
+  <si>
+    <t>Write refference</t>
+  </si>
+  <si>
+    <t>nextstate</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>init-cmt</t>
+  </si>
+  <si>
+    <t>init-ref</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>update-cmt</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wait-cmt</t>
+  </si>
+  <si>
+    <t>post_wait-cmt</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>nowait</t>
+  </si>
+  <si>
+    <t>!dir</t>
+  </si>
+  <si>
+    <t>!uuid</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>(bitmap)</t>
+  </si>
+  <si>
+    <t>S_SETBUF</t>
+  </si>
+  <si>
+    <t>S_SPLITBUF</t>
+  </si>
+  <si>
+    <t>S_SETVALUE</t>
+  </si>
+  <si>
+    <t>S_CVTMACRO</t>
+  </si>
+  <si>
+    <t>S_POSTPROC</t>
+  </si>
+  <si>
+    <t>対象バッファに関数テンプレートを設定する</t>
+  </si>
+  <si>
+    <t>バッファをラインに分割</t>
+  </si>
+  <si>
+    <t>バッファの前処理
+&lt;&lt;&lt;?xxxx ... &gt;&gt;&gt;　を処理</t>
+  </si>
+  <si>
+    <t>値の挿入
+[[xxx]]を値に変換する</t>
+  </si>
+  <si>
+    <t>マクロ変換</t>
+  </si>
+  <si>
+    <t>後処理
+空白行削除</t>
+  </si>
+  <si>
+    <t>br_OK(S_SETVALUE);
+br_NG(S_END);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>S_PREPROC</t>
+  </si>
+  <si>
+    <t>set_buf();</t>
+  </si>
+  <si>
+    <t>split_buf();</t>
+  </si>
+  <si>
+    <t>preprocess();</t>
+  </si>
+  <si>
+    <t>set_value();</t>
+  </si>
+  <si>
+    <t>convert_macro();</t>
+  </si>
+  <si>
+    <t>postprocess();</t>
+  </si>
+  <si>
+    <t>br_OK(S_PREPROC);
+br_NG(S_END);</t>
+  </si>
+  <si>
+    <t>S_LOOP_INIT</t>
+  </si>
+  <si>
+    <t>S_LOOPCHECK</t>
+  </si>
+  <si>
+    <t>S_LOOPNEXT</t>
+  </si>
+  <si>
+    <t>ループ初期化</t>
+  </si>
+  <si>
+    <t>ループ確認</t>
+  </si>
+  <si>
+    <t>ループNEXT処理</t>
+  </si>
+  <si>
+    <t>br_OK(S_LOOP_INIT);
+br_NG(S_END);</t>
+  </si>
+  <si>
+    <t>br_NeedAgain(S_LOOPNEXT);
+br_OK(S_CVTMACRO);
+br_NG(S_END);</t>
+  </si>
+  <si>
+    <t>br_NeedAgain(S_LOOPNEXT);
+br_OK(S_POSTPROC);
+br_NG(S_END);</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/26 21:44:55
+; * pssgEditor version : 0.7.0.d2b599dd6eb334f8dad799fa43d1c6a63dbbc1d2
+psggfile=@@@
+FunctionControl.psgg
+@@@
+xlsfile=@@@
+FunctionControl.xlsx
+@@@
+guid=@@@
+ff5553d6-7939-4df0-ad86-28655c486750
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_0001","Value":{"x":740,"y":606}},{"Key":"S_SETBUF","Value":{"x":25,"y":122}},{"Key":"S_SPLITBUF","Value":{"x":207,"y":121}},{"Key":"S_PREPARE","Value":{"x":554,"y":236}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1049,"y":746}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
 </t>
   </si>
 </sst>
@@ -941,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
@@ -957,206 +1128,392 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" ht="56.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1">
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" s="11" customFormat="1">
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1">
+    <row r="9" spans="1:14" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1">
+    <row r="10" spans="1:14" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1">
+    <row r="12" spans="1:14" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1">
+    <row r="13" spans="1:14" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1">
+    <row r="14" spans="1:14" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1">
+    <row r="15" spans="1:14" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1">
+    <row r="16" spans="1:14" s="11" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
+    <row r="17" spans="1:14" s="11" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1">
+    <row r="18" spans="1:14" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
+    <row r="19" spans="1:14" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" s="13" customFormat="1">
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="93.75">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="G20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" s="16" customFormat="1"/>
-    <row r="23" spans="1:5" s="16" customFormat="1">
+    <row r="22" spans="1:14" s="16" customFormat="1"/>
+    <row r="23" spans="1:14" s="16" customFormat="1" ht="56.25">
       <c r="B23" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="16" customFormat="1">
+        <v>25</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1167,6 +1524,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1A90F8-E3A2-4241-92A1-7EAA4BB8F95A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5">
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318D3D81-166C-48BF-A3FC-19C8C68AE66D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1176,7 +1553,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F91A6B-FF51-49D1-AAF0-052A66044860}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1196,7 +1573,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D613D8-66FA-4B71-AC2F-56E050EABAAA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1215,7 +1592,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11D4A0C-D41F-4280-A514-0E745C75BC6D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1234,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C1041-844A-4003-BECE-215A7DDD9D43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D5E95-D5B3-45C6-96C5-9253C70DEE68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>thumbnail</t>
   </si>
@@ -423,10 +423,6 @@
 空白行削除</t>
   </si>
   <si>
-    <t>br_OK(S_SETVALUE);
-br_NG(S_END);</t>
-  </si>
-  <si>
     <t xml:space="preserve">/
 (100,100)
 </t>
@@ -516,7 +512,18 @@
     <t>100011</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/26 21:44:55
+    <t>loop_init();</t>
+  </si>
+  <si>
+    <t>loop_check();</t>
+  </si>
+  <si>
+    <t>br_NeedAgain(S_LOOPNEXT);
+br_OK(S_SETVALUE);
+br_NG(S_END);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/27 5:54:35
 ; * pssgEditor version : 0.7.0.d2b599dd6eb334f8dad799fa43d1c6a63dbbc1d2
 psggfile=@@@
 FunctionControl.psgg
@@ -534,7 +541,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Moved a state
+Changed an arrow direction
 @@@
 target_pathdir=@@@
 /
@@ -542,7 +549,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_0001","Value":{"x":740,"y":606}},{"Key":"S_SETBUF","Value":{"x":25,"y":122}},{"Key":"S_SPLITBUF","Value":{"x":207,"y":121}},{"Key":"S_PREPARE","Value":{"x":554,"y":236}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1049,"y":746}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_SETBUF","Value":{"x":25,"y":122}},{"Key":"S_SPLITBUF","Value":{"x":207,"y":121}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1051,"y":774}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
@@ -1185,7 +1192,7 @@
         <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>32</v>
@@ -1197,13 +1204,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="56.25">
@@ -1235,13 +1242,13 @@
         <v>40</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1">
@@ -1272,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1">
@@ -1294,22 +1301,28 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>55</v>
+      <c r="L7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1">
@@ -1421,19 +1434,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="M20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1">
@@ -1451,31 +1464,31 @@
         <v>25</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="16" customFormat="1">
@@ -1489,31 +1502,31 @@
         <v>28</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="K24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="L24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="N24" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1546,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D5E95-D5B3-45C6-96C5-9253C70DEE68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633618B9-14D8-4693-B0A1-277A4D0F4807}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
 br_NG(S_END);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/27 5:54:35
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/27 21:00:31
 ; * pssgEditor version : 0.7.0.d2b599dd6eb334f8dad799fa43d1c6a63dbbc1d2
 psggfile=@@@
 FunctionControl.psgg
@@ -541,7 +541,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Initilized
 @@@
 target_pathdir=@@@
 /

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633618B9-14D8-4693-B0A1-277A4D0F4807}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00220BAF-2A60-44F5-A173-6F16D4385E03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 br_NG(S_END);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/27 21:00:31
-; * pssgEditor version : 0.7.0.d2b599dd6eb334f8dad799fa43d1c6a63dbbc1d2
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/05 8:04:15
+; * pssgEditor version : 0.8.0.288723737aa620d167d947ece2ef478bd27bb0aa
 psggfile=@@@
 FunctionControl.psgg
 @@@
@@ -565,6 +565,7 @@
 @@@
 option_delete_thisstring=0
 option_delete_br_string=0
+option_delete_bracket_string=0
 font_name=@@@
 MS UI Gothic
 @@@

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633618B9-14D8-4693-B0A1-277A4D0F4807}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7E0E89-EAA9-4B1E-A920-48367795DB86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 br_NG(S_END);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/27 21:00:31
-; * pssgEditor version : 0.7.0.d2b599dd6eb334f8dad799fa43d1c6a63dbbc1d2
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/01 21:58:41
+; * pssgEditor version : 0.9.18593.fbbe65823b38cbcc955eb1a77e3edfd8ea40c4cb
 psggfile=@@@
 FunctionControl.psgg
 @@@
@@ -558,13 +558,16 @@
 external_command=@@@
 @@@
 source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
 @@@
 label_show=0
 label_text=@@@
 test
 @@@
 option_delete_thisstring=0
-option_delete_br_string=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
 font_name=@@@
 MS UI Gothic
 @@@

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7E0E89-EAA9-4B1E-A920-48367795DB86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD409CE1-77C0-415B-ABE4-4AC9C9FDED96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,10 +408,6 @@
     <t>バッファをラインに分割</t>
   </si>
   <si>
-    <t>バッファの前処理
-&lt;&lt;&lt;?xxxx ... &gt;&gt;&gt;　を処理</t>
-  </si>
-  <si>
     <t>値の挿入
 [[xxx]]を値に変換する</t>
   </si>
@@ -523,7 +519,11 @@
 br_NG(S_END);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/01 21:58:41
+    <t>バッファの前処理
+&lt;..?xxxx ...&gt;　を処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/01 22:29:25
 ; * pssgEditor version : 0.9.18593.fbbe65823b38cbcc955eb1a77e3edfd8ea40c4cb
 psggfile=@@@
 FunctionControl.psgg
@@ -541,7 +541,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Initilized
+Edited a state.
 @@@
 target_pathdir=@@@
 /
@@ -1195,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>32</v>
@@ -1207,13 +1207,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="56.25">
@@ -1233,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="L3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1">
@@ -1282,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1">
@@ -1304,28 +1304,28 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1">
@@ -1437,19 +1437,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="G20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="M20" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1">
@@ -1467,31 +1467,31 @@
         <v>25</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="16" customFormat="1">
@@ -1505,31 +1505,31 @@
         <v>28</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="K24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="L24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="N24" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD409CE1-77C0-415B-ABE4-4AC9C9FDED96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720C2EC-EA48-4868-A58D-63B1CFCE05C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>thumbnail</t>
   </si>
@@ -577,6 +577,10 @@
 comment_block_height=45
 line_space=-1
 </t>
+  </si>
+  <si>
+    <t>!pos</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1122,13 +1126,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1496,39 +1500,44 @@
     </row>
     <row r="24" spans="1:14" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="16" customFormat="1">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>66</v>
       </c>
     </row>

--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720C2EC-EA48-4868-A58D-63B1CFCE05C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="6" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
-    <sheet name="template-source" sheetId="2" r:id="rId6"/>
+    <sheet name="help" sheetId="25" r:id="rId29"/>
+    <sheet name="setting.ini" sheetId="24" r:id="rId28"/>
+    <sheet name="template-statefunc" sheetId="23" r:id="rId27"/>
+    <sheet name="template-source" sheetId="22" r:id="rId26"/>
+    <sheet name="config" sheetId="21" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>thumbnail</t>
   </si>
@@ -581,6 +582,1161 @@
   <si>
     <t>!pos</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>br_USE_TEMPFUNC(S_SETBUF);
+br_USE_MACROBUF(S_SETMACROBUF);</t>
+  </si>
+  <si>
+    <t>26,30</t>
+  </si>
+  <si>
+    <t>1313,743</t>
+  </si>
+  <si>
+    <t>271,18</t>
+  </si>
+  <si>
+    <t>685,33</t>
+  </si>
+  <si>
+    <t>564,272</t>
+  </si>
+  <si>
+    <t>794,268</t>
+  </si>
+  <si>
+    <t>1032,331</t>
+  </si>
+  <si>
+    <t>1331,393</t>
+  </si>
+  <si>
+    <t>34,361</t>
+  </si>
+  <si>
+    <t>245,364</t>
+  </si>
+  <si>
+    <t>1051,774</t>
+  </si>
+  <si>
+    <t>S_SETMACROBUF</t>
+  </si>
+  <si>
+    <t>対象バッファにMACROバッファを設定する</t>
+  </si>
+  <si>
+    <t>set_macrobuf();</t>
+  </si>
+  <si>
+    <t>270,118</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 19:13:55
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+FunctionControl.psgg
+@@@
+xlsfile=@@@
+FunctionControl.xlsx
+@@@
+guid=@@@
+ff5553d6-7939-4df0-ad86-28655c486750
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_SETBUF","Value":{"x":271,"y":18}},{"Key":"S_SPLITBUF","Value":{"x":685,"y":33}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1051,"y":774}},{"Key":"S_SETBUF1","Value":{"x":270,"y":118}},{"Key":"S_SETMACROBUF","Value":{"x":270,"y":118}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=FunctionControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class FunctionControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=FunctionControl.psgg
+xls=FunctionControl.xlsx
+sub_src=FunctionControl.cs
+gen_src=FunctionControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Function
+xlsdir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+gendir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+genrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルを作成します。
+      FunctionControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      FunctionControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルが作成されます。
+      FunctionControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     FunctionControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  File:
+      FunctionControl.pssg  --- PSSG Editor opens the below excel file.
+      FunctionControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+　File:
+      FunctionControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      FunctionControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 19:19:00
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+FunctionControl.psgg
+@@@
+xlsfile=@@@
+FunctionControl.xlsx
+@@@
+guid=@@@
+ff5553d6-7939-4df0-ad86-28655c486750
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_SETBUF","Value":{"x":271,"y":18}},{"Key":"S_SPLITBUF","Value":{"x":685,"y":33}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1051,"y":774}},{"Key":"S_SETBUF1","Value":{"x":270,"y":118}},{"Key":"S_SETMACROBUF","Value":{"x":270,"y":118}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=FunctionControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class FunctionControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=FunctionControl.psgg
+xls=FunctionControl.xlsx
+sub_src=FunctionControl.cs
+gen_src=FunctionControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Function
+xlsdir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+gendir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+genrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルを作成します。
+      FunctionControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      FunctionControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルが作成されます。
+      FunctionControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     FunctionControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  File:
+      FunctionControl.pssg  --- PSSG Editor opens the below excel file.
+      FunctionControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+　File:
+      FunctionControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      FunctionControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 19:28:09
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+FunctionControl.psgg
+@@@
+xlsfile=@@@
+FunctionControl.xlsx
+@@@
+guid=@@@
+ff5553d6-7939-4df0-ad86-28655c486750
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_SETBUF","Value":{"x":271,"y":18}},{"Key":"S_SPLITBUF","Value":{"x":685,"y":33}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1051,"y":774}},{"Key":"S_SETBUF1","Value":{"x":270,"y":118}},{"Key":"S_SETMACROBUF","Value":{"x":270,"y":118}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=FunctionControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class FunctionControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=FunctionControl.psgg
+xls=FunctionControl.xlsx
+sub_src=FunctionControl.cs
+gen_src=FunctionControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Function
+xlsdir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+gendir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+genrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルを作成します。
+      FunctionControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      FunctionControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルが作成されます。
+      FunctionControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     FunctionControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  File:
+      FunctionControl.pssg  --- PSSG Editor opens the below excel file.
+      FunctionControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+　File:
+      FunctionControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      FunctionControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 19:29:50
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+FunctionControl.psgg
+@@@
+xlsfile=@@@
+FunctionControl.xlsx
+@@@
+guid=@@@
+ff5553d6-7939-4df0-ad86-28655c486750
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_SETBUF","Value":{"x":271,"y":18}},{"Key":"S_SPLITBUF","Value":{"x":685,"y":33}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1051,"y":774}},{"Key":"S_SETBUF1","Value":{"x":270,"y":118}},{"Key":"S_SETMACROBUF","Value":{"x":270,"y":118}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=FunctionControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class FunctionControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=FunctionControl.psgg
+xls=FunctionControl.xlsx
+sub_src=FunctionControl.cs
+gen_src=FunctionControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Function
+xlsdir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+gendir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+genrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルを作成します。
+      FunctionControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      FunctionControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルが作成されます。
+      FunctionControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     FunctionControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  File:
+      FunctionControl.pssg  --- PSSG Editor opens the below excel file.
+      FunctionControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+　File:
+      FunctionControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      FunctionControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
   </si>
 </sst>
 </file>
@@ -661,13 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -683,43 +1839,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,80 +1921,80 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1126,9 +2282,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1138,11 +2294,11 @@
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1177,8 +2333,11 @@
       <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="O1" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1">
+    <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1219,8 +2378,11 @@
       <c r="N2" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="O2" s="17" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" ht="56.25">
+    <row r="3" s="7" customFormat="true" ht="56.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -1257,8 +2419,11 @@
       <c r="N3" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="O3" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="7" customFormat="1">
+    <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1269,14 +2434,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
@@ -1291,15 +2456,18 @@
       <c r="N5" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="O5" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1">
+    <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -1331,8 +2499,11 @@
       <c r="M7" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="O7" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1">
+    <row r="8" s="11" customFormat="true">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
@@ -1341,7 +2512,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1">
+    <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -1350,14 +2521,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="true">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1366,7 +2537,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1">
+    <row r="12" s="11" customFormat="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1375,14 +2546,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1">
+    <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
@@ -1391,7 +2562,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1">
+    <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1400,14 +2571,14 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="11" customFormat="1">
+    <row r="16" s="11" customFormat="true">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:14" s="11" customFormat="1">
+    <row r="17" s="11" customFormat="true">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1416,7 +2587,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:14" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -1425,20 +2596,22 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1">
+    <row r="19" s="11" customFormat="true">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="93.75">
+    <row r="20" s="13" customFormat="true" ht="93.75">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="G20" s="13" t="s">
         <v>61</v>
@@ -1456,7 +2629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" s="15" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>24</v>
@@ -1465,8 +2638,8 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:14" s="16" customFormat="1"/>
-    <row r="23" spans="1:14" s="16" customFormat="1" ht="56.25">
+    <row r="22" s="16" customFormat="true"/>
+    <row r="23" s="16" customFormat="true" ht="56.25">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1497,13 +2670,52 @@
       <c r="N23" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="O23" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" s="16" customFormat="1">
+    <row r="24" s="16" customFormat="true">
       <c r="B24" s="16" t="s">
         <v>72</v>
       </c>
+      <c r="D24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" s="16" customFormat="1">
+    <row r="25" s="16" customFormat="true">
       <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
@@ -1539,6 +2751,9 @@
       </c>
       <c r="N25" s="16" t="s">
         <v>66</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1548,99 +2763,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1A90F8-E3A2-4241-92A1-7EAA4BB8F95A}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>71</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318D3D81-166C-48BF-A3FC-19C8C68AE66D}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F91A6B-FF51-49D1-AAF0-052A66044860}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D613D8-66FA-4B71-AC2F-56E050EABAAA}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11D4A0C-D41F-4280-A514-0E745C75BC6D}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/FunctionControl.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="25" r:id="rId29"/>
-    <sheet name="setting.ini" sheetId="24" r:id="rId28"/>
-    <sheet name="template-statefunc" sheetId="23" r:id="rId27"/>
-    <sheet name="template-source" sheetId="22" r:id="rId26"/>
-    <sheet name="config" sheetId="21" r:id="rId25"/>
+    <sheet name="itemsinfo" sheetId="31" r:id="rId35"/>
+    <sheet name="help" sheetId="30" r:id="rId34"/>
+    <sheet name="setting.ini" sheetId="29" r:id="rId33"/>
+    <sheet name="template-statefunc" sheetId="28" r:id="rId32"/>
+    <sheet name="template-source" sheetId="27" r:id="rId31"/>
+    <sheet name="config" sheetId="26" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>thumbnail</t>
   </si>
@@ -1737,6 +1738,88 @@
 en=@@@
 System uses this for the uuid of the state.
 @@@</t>
+  </si>
+  <si>
+    <t>MacroControl.psgg</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/07/30 21:37:13
+; * pssgEditor version : 0.54.20053.6a88e94812a0516da7c22b4322f5052140be2464
+psggfile=@@@
+FunctionControl.psgg
+@@@
+xlsfile=@@@
+FunctionControl.xlsx
+@@@
+guid=@@@
+ff5553d6-7939-4df0-ad86-28655c486750
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":26,"y":30}},{"Key":"S_END","Value":{"x":1313,"y":743}},{"Key":"S_SETBUF","Value":{"x":271,"y":18}},{"Key":"S_SPLITBUF","Value":{"x":685,"y":33}},{"Key":"S_SETVALUE","Value":{"x":794,"y":268}},{"Key":"S_CVTMACRO","Value":{"x":1032,"y":331}},{"Key":"S_POSTPROC","Value":{"x":1331,"y":393}},{"Key":"S_PREPROC","Value":{"x":564,"y":272}},{"Key":"S_LOOP_INIT","Value":{"x":34,"y":361}},{"Key":"S_LOOPCHECK","Value":{"x":245,"y":364}},{"Key":"S_LOOPNEXT","Value":{"x":1051,"y":774}},{"Key":"S_SETMACROBUF","Value":{"x":270,"y":118}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"S_END"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
   </si>
 </sst>
 </file>
@@ -2433,6 +2516,9 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A5" s="8"/>
@@ -2763,21 +2849,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2791,7 +2877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2805,7 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2819,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2831,4 +2917,18 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>